--- a/contratos/contratos-5-2013.xlsx
+++ b/contratos/contratos-5-2013.xlsx
@@ -667,7 +667,7 @@
     <t>ELECTROMECANICA TACUAR S.R.L.</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>FIOROTTO ALBERTO M Y REY CESAR A S.R.L.</t>
@@ -682,7 +682,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>LAMBERT CARLOS MIGUEL</t>
@@ -691,7 +691,7 @@
     <t>MAGRI HECTOR RAMON</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -721,7 +721,7 @@
     <t>AGUILAR DANIEL ANTONIO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BOURLOT NESTOR CONRADO</t>
@@ -838,7 +838,7 @@
     <t>GRUPO MARSO S.R.L.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -934,10 +934,10 @@
     <t>ZALAZAR DIONISIO RUBEN DARIO</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
-  </si>
-  <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>DODERA. JORGE ABELARDO</t>
+  </si>
+  <si>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>CENTINELA S.R.L.</t>
@@ -1372,646 +1372,646 @@
     <t>16</t>
   </si>
   <si>
-    <t>27.780,80</t>
-  </si>
-  <si>
-    <t>229.000,00</t>
-  </si>
-  <si>
-    <t>417.401,60</t>
-  </si>
-  <si>
-    <t>194.150,86</t>
-  </si>
-  <si>
-    <t>1.684,90</t>
-  </si>
-  <si>
-    <t>1.939,83</t>
-  </si>
-  <si>
-    <t>1.316,39</t>
-  </si>
-  <si>
-    <t>94.080,00</t>
-  </si>
-  <si>
-    <t>102.205,80</t>
-  </si>
-  <si>
-    <t>7.340,00</t>
-  </si>
-  <si>
-    <t>25.169,99</t>
-  </si>
-  <si>
-    <t>3.535,00</t>
-  </si>
-  <si>
-    <t>1.209,60</t>
-  </si>
-  <si>
-    <t>11.616,15</t>
-  </si>
-  <si>
-    <t>10.702,51</t>
-  </si>
-  <si>
-    <t>19.620,00</t>
-  </si>
-  <si>
-    <t>2.337,50</t>
-  </si>
-  <si>
-    <t>162,40</t>
-  </si>
-  <si>
-    <t>12.234,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>1.706,10</t>
-  </si>
-  <si>
-    <t>41.280,00</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>41.695,81</t>
-  </si>
-  <si>
-    <t>205,00</t>
-  </si>
-  <si>
-    <t>373,81</t>
-  </si>
-  <si>
-    <t>1.377,60</t>
-  </si>
-  <si>
-    <t>47,85</t>
-  </si>
-  <si>
-    <t>322,20</t>
-  </si>
-  <si>
-    <t>762,00</t>
-  </si>
-  <si>
-    <t>37,50</t>
-  </si>
-  <si>
-    <t>5.396,31</t>
-  </si>
-  <si>
-    <t>20.599,00</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>4.968,00</t>
-  </si>
-  <si>
-    <t>119,25</t>
-  </si>
-  <si>
-    <t>19.337,30</t>
-  </si>
-  <si>
-    <t>279,00</t>
-  </si>
-  <si>
-    <t>4.078,90</t>
-  </si>
-  <si>
-    <t>208,58</t>
-  </si>
-  <si>
-    <t>935,00</t>
-  </si>
-  <si>
-    <t>143.421,60</t>
-  </si>
-  <si>
-    <t>10,50</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>36,00</t>
-  </si>
-  <si>
-    <t>4.309,20</t>
-  </si>
-  <si>
-    <t>3.791,78</t>
-  </si>
-  <si>
-    <t>7.726,10</t>
-  </si>
-  <si>
-    <t>85.700,00</t>
-  </si>
-  <si>
-    <t>613,28</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>27,82</t>
-  </si>
-  <si>
-    <t>2.546,00</t>
-  </si>
-  <si>
-    <t>155,99</t>
-  </si>
-  <si>
-    <t>1.118,29</t>
-  </si>
-  <si>
-    <t>170,72</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>46.607,86</t>
-  </si>
-  <si>
-    <t>41.211,55</t>
-  </si>
-  <si>
-    <t>13.180,00</t>
-  </si>
-  <si>
-    <t>7.014,61</t>
-  </si>
-  <si>
-    <t>10.072,20</t>
-  </si>
-  <si>
-    <t>15.900,00</t>
-  </si>
-  <si>
-    <t>557,75</t>
-  </si>
-  <si>
-    <t>81,20</t>
-  </si>
-  <si>
-    <t>3.941,62</t>
-  </si>
-  <si>
-    <t>5.515,00</t>
-  </si>
-  <si>
-    <t>3.699,50</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>504,18</t>
-  </si>
-  <si>
-    <t>7.728,60</t>
-  </si>
-  <si>
-    <t>2.207,00</t>
-  </si>
-  <si>
-    <t>48,00</t>
-  </si>
-  <si>
-    <t>3.160,00</t>
-  </si>
-  <si>
-    <t>13.844,00</t>
-  </si>
-  <si>
-    <t>69.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>611,50</t>
-  </si>
-  <si>
-    <t>215,00</t>
-  </si>
-  <si>
-    <t>2.446,58</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>1.064,00</t>
-  </si>
-  <si>
-    <t>9.983,00</t>
-  </si>
-  <si>
-    <t>3.737,60</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>455,00</t>
-  </si>
-  <si>
-    <t>828,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>299,00</t>
-  </si>
-  <si>
-    <t>1.658,00</t>
-  </si>
-  <si>
-    <t>92,00</t>
-  </si>
-  <si>
-    <t>12.675,30</t>
-  </si>
-  <si>
-    <t>878,43</t>
-  </si>
-  <si>
-    <t>3.108,00</t>
-  </si>
-  <si>
-    <t>20.030,00</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>37.650,00</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>88,26</t>
-  </si>
-  <si>
-    <t>31.000,00</t>
-  </si>
-  <si>
-    <t>194.700,00</t>
-  </si>
-  <si>
-    <t>8.706,80</t>
-  </si>
-  <si>
-    <t>6,03</t>
-  </si>
-  <si>
-    <t>2.490,00</t>
-  </si>
-  <si>
-    <t>93,94</t>
-  </si>
-  <si>
-    <t>4.212,45</t>
-  </si>
-  <si>
-    <t>3,68</t>
-  </si>
-  <si>
-    <t>488,00</t>
-  </si>
-  <si>
-    <t>133,75</t>
-  </si>
-  <si>
-    <t>320,55</t>
-  </si>
-  <si>
-    <t>347,50</t>
-  </si>
-  <si>
-    <t>636,00</t>
-  </si>
-  <si>
-    <t>295,20</t>
-  </si>
-  <si>
-    <t>6.750,01</t>
-  </si>
-  <si>
-    <t>4.118,12</t>
-  </si>
-  <si>
-    <t>2.328,04</t>
-  </si>
-  <si>
-    <t>478,55</t>
-  </si>
-  <si>
-    <t>114,74</t>
-  </si>
-  <si>
-    <t>35.851,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>1.140,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>7,10</t>
-  </si>
-  <si>
-    <t>1.074,00</t>
-  </si>
-  <si>
-    <t>7.700,00</t>
-  </si>
-  <si>
-    <t>25.680,00</t>
-  </si>
-  <si>
-    <t>3.726,00</t>
-  </si>
-  <si>
-    <t>1.120,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>604,64</t>
-  </si>
-  <si>
-    <t>2.631,87</t>
-  </si>
-  <si>
-    <t>1.152,50</t>
-  </si>
-  <si>
-    <t>4.212,20</t>
-  </si>
-  <si>
-    <t>169,50</t>
-  </si>
-  <si>
-    <t>1.128,48</t>
-  </si>
-  <si>
-    <t>24,04</t>
-  </si>
-  <si>
-    <t>21.055,00</t>
-  </si>
-  <si>
-    <t>123,82</t>
-  </si>
-  <si>
-    <t>130.946,00</t>
-  </si>
-  <si>
-    <t>7.260,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>12.899,28</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>20.303,40</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>6.682,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>930,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>4.901,00</t>
-  </si>
-  <si>
-    <t>2.048,00</t>
-  </si>
-  <si>
-    <t>2.351,82</t>
-  </si>
-  <si>
-    <t>2.001,58</t>
-  </si>
-  <si>
-    <t>3.125,00</t>
-  </si>
-  <si>
-    <t>1.110,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>718,62</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>876,84</t>
-  </si>
-  <si>
-    <t>1.386,50</t>
-  </si>
-  <si>
-    <t>2.043,88</t>
-  </si>
-  <si>
-    <t>1.458,54</t>
-  </si>
-  <si>
-    <t>523,78</t>
-  </si>
-  <si>
-    <t>135,40</t>
-  </si>
-  <si>
-    <t>21.330,00</t>
-  </si>
-  <si>
-    <t>6.239,00</t>
-  </si>
-  <si>
-    <t>1.936,70</t>
-  </si>
-  <si>
-    <t>990,00</t>
-  </si>
-  <si>
-    <t>8.355,68</t>
-  </si>
-  <si>
-    <t>1.770,00</t>
-  </si>
-  <si>
-    <t>10.150,00</t>
-  </si>
-  <si>
-    <t>453,60</t>
-  </si>
-  <si>
-    <t>12.728,00</t>
-  </si>
-  <si>
-    <t>5.315,82</t>
-  </si>
-  <si>
-    <t>2.805,00</t>
-  </si>
-  <si>
-    <t>22,35</t>
-  </si>
-  <si>
-    <t>2.052,60</t>
-  </si>
-  <si>
-    <t>6.016,69</t>
-  </si>
-  <si>
-    <t>3.405,02</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>2.323,06</t>
-  </si>
-  <si>
-    <t>23.497,78</t>
-  </si>
-  <si>
-    <t>510,00</t>
-  </si>
-  <si>
-    <t>68.200,00</t>
-  </si>
-  <si>
-    <t>994,00</t>
-  </si>
-  <si>
-    <t>136.500,00</t>
-  </si>
-  <si>
-    <t>62.500,00</t>
-  </si>
-  <si>
-    <t>74.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>32.000,00</t>
-  </si>
-  <si>
-    <t>111.500,00</t>
-  </si>
-  <si>
-    <t>1.027.139,98</t>
-  </si>
-  <si>
-    <t>927.193,79</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>58.000,00</t>
-  </si>
-  <si>
-    <t>68.000,00</t>
-  </si>
-  <si>
-    <t>3.550,00</t>
-  </si>
-  <si>
-    <t>661,00</t>
-  </si>
-  <si>
-    <t>1.513,00</t>
+    <t>27780.80</t>
+  </si>
+  <si>
+    <t>229000.00</t>
+  </si>
+  <si>
+    <t>417401.60</t>
+  </si>
+  <si>
+    <t>194150.86</t>
+  </si>
+  <si>
+    <t>1684.90</t>
+  </si>
+  <si>
+    <t>1939.83</t>
+  </si>
+  <si>
+    <t>1316.39</t>
+  </si>
+  <si>
+    <t>94080.00</t>
+  </si>
+  <si>
+    <t>102205.80</t>
+  </si>
+  <si>
+    <t>7340.00</t>
+  </si>
+  <si>
+    <t>25169.99</t>
+  </si>
+  <si>
+    <t>3535.00</t>
+  </si>
+  <si>
+    <t>1209.60</t>
+  </si>
+  <si>
+    <t>11616.15</t>
+  </si>
+  <si>
+    <t>10702.51</t>
+  </si>
+  <si>
+    <t>19620.00</t>
+  </si>
+  <si>
+    <t>2337.50</t>
+  </si>
+  <si>
+    <t>162.40</t>
+  </si>
+  <si>
+    <t>12234.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>1706.10</t>
+  </si>
+  <si>
+    <t>41280.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>41695.81</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>373.81</t>
+  </si>
+  <si>
+    <t>1377.60</t>
+  </si>
+  <si>
+    <t>47.85</t>
+  </si>
+  <si>
+    <t>322.20</t>
+  </si>
+  <si>
+    <t>762.00</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>5396.31</t>
+  </si>
+  <si>
+    <t>20599.00</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>4968.00</t>
+  </si>
+  <si>
+    <t>119.25</t>
+  </si>
+  <si>
+    <t>19337.30</t>
+  </si>
+  <si>
+    <t>279.00</t>
+  </si>
+  <si>
+    <t>4078.90</t>
+  </si>
+  <si>
+    <t>208.58</t>
+  </si>
+  <si>
+    <t>935.00</t>
+  </si>
+  <si>
+    <t>143421.60</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>4309.20</t>
+  </si>
+  <si>
+    <t>3791.78</t>
+  </si>
+  <si>
+    <t>7726.10</t>
+  </si>
+  <si>
+    <t>85700.00</t>
+  </si>
+  <si>
+    <t>613.28</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>27.82</t>
+  </si>
+  <si>
+    <t>2546.00</t>
+  </si>
+  <si>
+    <t>155.99</t>
+  </si>
+  <si>
+    <t>1118.29</t>
+  </si>
+  <si>
+    <t>170.72</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>46607.86</t>
+  </si>
+  <si>
+    <t>41211.55</t>
+  </si>
+  <si>
+    <t>13180.00</t>
+  </si>
+  <si>
+    <t>7014.61</t>
+  </si>
+  <si>
+    <t>10072.20</t>
+  </si>
+  <si>
+    <t>15900.00</t>
+  </si>
+  <si>
+    <t>557.75</t>
+  </si>
+  <si>
+    <t>81.20</t>
+  </si>
+  <si>
+    <t>3941.62</t>
+  </si>
+  <si>
+    <t>5515.00</t>
+  </si>
+  <si>
+    <t>3699.50</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>504.18</t>
+  </si>
+  <si>
+    <t>7728.60</t>
+  </si>
+  <si>
+    <t>2207.00</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>3160.00</t>
+  </si>
+  <si>
+    <t>13844.00</t>
+  </si>
+  <si>
+    <t>69000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>611.50</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>2446.58</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>1064.00</t>
+  </si>
+  <si>
+    <t>9983.00</t>
+  </si>
+  <si>
+    <t>3737.60</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>455.00</t>
+  </si>
+  <si>
+    <t>828.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>1658.00</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>12675.30</t>
+  </si>
+  <si>
+    <t>878.43</t>
+  </si>
+  <si>
+    <t>3108.00</t>
+  </si>
+  <si>
+    <t>20030.00</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>37650.00</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>88.26</t>
+  </si>
+  <si>
+    <t>31000.00</t>
+  </si>
+  <si>
+    <t>194700.00</t>
+  </si>
+  <si>
+    <t>8706.80</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>2490.00</t>
+  </si>
+  <si>
+    <t>93.94</t>
+  </si>
+  <si>
+    <t>4212.45</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>133.75</t>
+  </si>
+  <si>
+    <t>320.55</t>
+  </si>
+  <si>
+    <t>347.50</t>
+  </si>
+  <si>
+    <t>636.00</t>
+  </si>
+  <si>
+    <t>295.20</t>
+  </si>
+  <si>
+    <t>6750.01</t>
+  </si>
+  <si>
+    <t>4118.12</t>
+  </si>
+  <si>
+    <t>2328.04</t>
+  </si>
+  <si>
+    <t>478.55</t>
+  </si>
+  <si>
+    <t>114.74</t>
+  </si>
+  <si>
+    <t>35851.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>1140.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>1074.00</t>
+  </si>
+  <si>
+    <t>7700.00</t>
+  </si>
+  <si>
+    <t>25680.00</t>
+  </si>
+  <si>
+    <t>3726.00</t>
+  </si>
+  <si>
+    <t>1120.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>604.64</t>
+  </si>
+  <si>
+    <t>2631.87</t>
+  </si>
+  <si>
+    <t>1152.50</t>
+  </si>
+  <si>
+    <t>4212.20</t>
+  </si>
+  <si>
+    <t>169.50</t>
+  </si>
+  <si>
+    <t>1128.48</t>
+  </si>
+  <si>
+    <t>24.04</t>
+  </si>
+  <si>
+    <t>21055.00</t>
+  </si>
+  <si>
+    <t>123.82</t>
+  </si>
+  <si>
+    <t>130946.00</t>
+  </si>
+  <si>
+    <t>7260.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>12899.28</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>20303.40</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>6682.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>930.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>4901.00</t>
+  </si>
+  <si>
+    <t>2048.00</t>
+  </si>
+  <si>
+    <t>2351.82</t>
+  </si>
+  <si>
+    <t>2001.58</t>
+  </si>
+  <si>
+    <t>3125.00</t>
+  </si>
+  <si>
+    <t>1110.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>718.62</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>876.84</t>
+  </si>
+  <si>
+    <t>1386.50</t>
+  </si>
+  <si>
+    <t>2043.88</t>
+  </si>
+  <si>
+    <t>1458.54</t>
+  </si>
+  <si>
+    <t>523.78</t>
+  </si>
+  <si>
+    <t>135.40</t>
+  </si>
+  <si>
+    <t>21330.00</t>
+  </si>
+  <si>
+    <t>6239.00</t>
+  </si>
+  <si>
+    <t>1936.70</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>8355.68</t>
+  </si>
+  <si>
+    <t>1770.00</t>
+  </si>
+  <si>
+    <t>10150.00</t>
+  </si>
+  <si>
+    <t>453.60</t>
+  </si>
+  <si>
+    <t>12728.00</t>
+  </si>
+  <si>
+    <t>5315.82</t>
+  </si>
+  <si>
+    <t>2805.00</t>
+  </si>
+  <si>
+    <t>22.35</t>
+  </si>
+  <si>
+    <t>2052.60</t>
+  </si>
+  <si>
+    <t>6016.69</t>
+  </si>
+  <si>
+    <t>3405.02</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>2323.06</t>
+  </si>
+  <si>
+    <t>23497.78</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>68200.00</t>
+  </si>
+  <si>
+    <t>994.00</t>
+  </si>
+  <si>
+    <t>136500.00</t>
+  </si>
+  <si>
+    <t>62500.00</t>
+  </si>
+  <si>
+    <t>74000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>32000.00</t>
+  </si>
+  <si>
+    <t>111500.00</t>
+  </si>
+  <si>
+    <t>1027139.98</t>
+  </si>
+  <si>
+    <t>927193.79</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>58000.00</t>
+  </si>
+  <si>
+    <t>68000.00</t>
+  </si>
+  <si>
+    <t>3550.00</t>
+  </si>
+  <si>
+    <t>661.00</t>
+  </si>
+  <si>
+    <t>1513.00</t>
   </si>
 </sst>
 </file>
